--- a/Windows_Forensics/myWindowsForensicsCheatSheet.xlsx
+++ b/Windows_Forensics/myWindowsForensicsCheatSheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mussm\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mussm\Downloads\toDelete\scratch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E23FA2AA-A5D2-4004-B7CD-4BF227533521}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A9DF4A-5AD9-4BAB-B791-62A4BE4A1D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="5475" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{0E636C95-D70F-4F92-B77C-E3B970733DC4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="1" xr2:uid="{0E636C95-D70F-4F92-B77C-E3B970733DC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Welcome" sheetId="4" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="301">
   <si>
     <t>My Windows Forensics CheatSheet</t>
   </si>
@@ -838,12 +838,6 @@
     <t>Scheduled Tasks (.job), SchedLgU.txt, autorun registry keys</t>
   </si>
   <si>
-    <t>psxview, netstat, cahcedump, cmdline, cmdscan, connscan, consoles, dlldump, dlllist, drivermodule, dumpcerts, idt, impscan, ldrmodules,  envars, gahti, handles, ssdt, threads, vaddump, vadinfo, vadwalk</t>
-  </si>
-  <si>
-    <t>shellbags, sockets, sockscan, svcscan</t>
-  </si>
-  <si>
     <t>Volatility (Routing Tables, ARP cache, Running Procs)</t>
   </si>
   <si>
@@ -862,15 +856,6 @@
     <t>Windows Server</t>
   </si>
   <si>
-    <t>ntds.dit, IIS logs</t>
-  </si>
-  <si>
-    <t>Grab network based artifacts to hand over to NFS</t>
-  </si>
-  <si>
-    <t>arp, conn, dns, webserver access logs</t>
-  </si>
-  <si>
     <t>System Info</t>
   </si>
   <si>
@@ -886,9 +871,6 @@
     <t>Artifact Group</t>
   </si>
   <si>
-    <t>crashinfo, hibinfo, hpakextract</t>
-  </si>
-  <si>
     <t>Customer's Tools/data</t>
   </si>
   <si>
@@ -944,6 +926,27 @@
   </si>
   <si>
     <t>Memory Files (Might split): hiberfil.sys, pagefile.sys, swapfile.sys</t>
+  </si>
+  <si>
+    <t>ps, netstat, cahcedump, cmdline, cmdscan, connscan, consoles, dlldump, dlllist, drivermodule, dumpcerts, idt, impscan, ldrmodules,  envars, gahti, handles, ssdt, threads, vaddump, vadinfo, vadwalk</t>
+  </si>
+  <si>
+    <t>crashinfo, hibinfo, hpakextract, wer</t>
+  </si>
+  <si>
+    <t>shellbags, sockets, sockscan, svcscan, sc query</t>
+  </si>
+  <si>
+    <t>Grab network based artifacts</t>
+  </si>
+  <si>
+    <t>ntds.dit, IIS logs, httperr, webserver access logs</t>
+  </si>
+  <si>
+    <t>arp, conn, dns</t>
+  </si>
+  <si>
+    <t>SIEM data, IDS/IPS logs, server/router configs</t>
   </si>
 </sst>
 </file>
@@ -1048,7 +1051,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1059,7 +1062,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1068,9 +1070,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1549,7 +1548,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>239</v>
@@ -1634,7 +1633,7 @@
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
@@ -1651,8 +1650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E22259BB-8DE8-4C0E-9D53-291138DBA927}">
   <dimension ref="B2:D27"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1666,10 +1665,10 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C2" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="D2" t="s">
         <v>252</v>
@@ -1680,10 +1679,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D3" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
@@ -1691,10 +1690,10 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D4" t="s">
-        <v>264</v>
+        <v>294</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
@@ -1702,10 +1701,10 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D5" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
@@ -1713,10 +1712,10 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D6" t="s">
-        <v>265</v>
+        <v>296</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
@@ -1724,10 +1723,10 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D7" t="s">
-        <v>272</v>
+        <v>298</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
@@ -1735,10 +1734,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>273</v>
+        <v>297</v>
       </c>
       <c r="D8" t="s">
-        <v>274</v>
+        <v>299</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
@@ -1801,10 +1800,10 @@
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="D14" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
@@ -1812,11 +1811,14 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>281</v>
+        <v>275</v>
+      </c>
+      <c r="D15" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="27" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C27" s="14"/>
+      <c r="C27" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1830,7 +1832,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A48A823-35A3-40B2-BCAE-23B76E0E41AA}">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
     </sheetView>
@@ -1840,7 +1842,7 @@
     <col min="1" max="1" width="40.5703125" style="6" customWidth="1"/>
     <col min="2" max="2" width="43.85546875" style="7" customWidth="1"/>
     <col min="3" max="3" width="18.85546875" style="7" customWidth="1"/>
-    <col min="4" max="4" width="81.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="81.140625" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="48.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="247.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -1855,7 +1857,7 @@
       <c r="C1" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="7" t="s">
@@ -1866,7 +1868,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -1875,7 +1877,7 @@
       <c r="C2" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>65</v>
       </c>
       <c r="E2" s="7" t="s">
@@ -1883,7 +1885,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -1892,7 +1894,7 @@
       <c r="C3" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>68</v>
       </c>
       <c r="E3" s="7" t="s">
@@ -1903,7 +1905,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="7" t="s">
@@ -1912,7 +1914,7 @@
       <c r="C4" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>70</v>
       </c>
       <c r="E4" s="7" t="s">
@@ -1923,7 +1925,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="11" t="s">
         <v>46</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -1932,7 +1934,7 @@
       <c r="C5" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>69</v>
       </c>
       <c r="E5" s="7" t="s">
@@ -1943,7 +1945,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -1952,7 +1954,7 @@
       <c r="C6" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>78</v>
       </c>
       <c r="E6" s="7" t="s">
@@ -1963,7 +1965,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -1972,7 +1974,7 @@
       <c r="C7" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>48</v>
       </c>
       <c r="E7" s="7" t="s">
@@ -1980,7 +1982,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="11" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -1989,7 +1991,7 @@
       <c r="C8" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="8" t="s">
         <v>75</v>
       </c>
       <c r="E8" s="7" t="s">
@@ -2000,7 +2002,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="7" t="s">
@@ -2009,7 +2011,7 @@
       <c r="C9" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="8" t="s">
         <v>79</v>
       </c>
       <c r="F9" t="s">
@@ -2017,7 +2019,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="11" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -2026,7 +2028,7 @@
       <c r="C10" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="8" t="s">
         <v>117</v>
       </c>
       <c r="E10" s="7" t="s">
@@ -2037,7 +2039,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="11" t="s">
         <v>36</v>
       </c>
       <c r="C11" s="7" t="s">
@@ -2045,7 +2047,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="11" t="s">
         <v>61</v>
       </c>
       <c r="B12" s="7" t="s">
@@ -2054,7 +2056,7 @@
       <c r="C12" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="8" t="s">
         <v>190</v>
       </c>
       <c r="F12" t="s">
@@ -2062,7 +2064,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="11" t="s">
         <v>84</v>
       </c>
       <c r="B13" s="7" t="s">
@@ -2071,7 +2073,7 @@
       <c r="C13" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="8" t="s">
         <v>86</v>
       </c>
       <c r="E13" s="7" t="s">
@@ -2079,7 +2081,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="11" t="s">
         <v>50</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -2088,7 +2090,7 @@
       <c r="C14" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="8" t="s">
         <v>81</v>
       </c>
       <c r="E14" s="7" t="s">
@@ -2099,7 +2101,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="11" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="7" t="s">
@@ -2108,7 +2110,7 @@
       <c r="C15" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="8" t="s">
         <v>130</v>
       </c>
       <c r="E15" s="7" t="s">
@@ -2116,7 +2118,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="11" t="s">
         <v>26</v>
       </c>
       <c r="B16" s="7" t="s">
@@ -2125,7 +2127,7 @@
       <c r="C16" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="8" t="s">
         <v>94</v>
       </c>
       <c r="E16" s="7" t="s">
@@ -2136,7 +2138,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="11" t="s">
         <v>25</v>
       </c>
       <c r="B17" s="7" t="s">
@@ -2145,7 +2147,7 @@
       <c r="C17" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="8" t="s">
         <v>92</v>
       </c>
       <c r="E17" s="7" t="s">
@@ -2153,7 +2155,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="11" t="s">
         <v>153</v>
       </c>
       <c r="B18" s="7" t="s">
@@ -2162,7 +2164,7 @@
       <c r="C18" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="8" t="s">
         <v>174</v>
       </c>
       <c r="E18" s="7" t="s">
@@ -2170,15 +2172,15 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
-        <v>299</v>
+      <c r="A19" s="11" t="s">
+        <v>293</v>
       </c>
       <c r="F19" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="11" t="s">
         <v>128</v>
       </c>
       <c r="B20" s="7" t="s">
@@ -2187,7 +2189,7 @@
       <c r="C20" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="8" t="s">
         <v>131</v>
       </c>
       <c r="E20" s="7" t="s">
@@ -2198,7 +2200,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="11" t="s">
         <v>15</v>
       </c>
       <c r="B21" s="7" t="s">
@@ -2207,15 +2209,15 @@
       <c r="C21" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="10" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="11" t="s">
         <v>152</v>
       </c>
       <c r="B22" s="7" t="s">
@@ -2224,7 +2226,7 @@
       <c r="C22" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="8" t="s">
         <v>174</v>
       </c>
       <c r="E22" s="7" t="s">
@@ -2235,7 +2237,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="11" t="s">
         <v>27</v>
       </c>
       <c r="B23" s="7" t="s">
@@ -2244,7 +2246,7 @@
       <c r="C23" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="8" t="s">
         <v>160</v>
       </c>
       <c r="E23" s="7" t="s">
@@ -2255,7 +2257,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="11" t="s">
         <v>154</v>
       </c>
       <c r="B24" s="7" t="s">
@@ -2264,7 +2266,7 @@
       <c r="C24" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="8" t="s">
         <v>174</v>
       </c>
       <c r="E24" s="7" t="s">
@@ -2272,7 +2274,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="11" t="s">
         <v>155</v>
       </c>
       <c r="B25" s="7" t="s">
@@ -2281,7 +2283,7 @@
       <c r="C25" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="8" t="s">
         <v>156</v>
       </c>
       <c r="E25" s="7" t="s">
@@ -2289,7 +2291,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="11" t="s">
         <v>96</v>
       </c>
       <c r="B26" s="7" t="s">
@@ -2298,10 +2300,10 @@
       <c r="C26" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="E26" s="11" t="s">
+      <c r="E26" s="10" t="s">
         <v>113</v>
       </c>
       <c r="F26" t="s">
@@ -2309,22 +2311,21 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D27" s="13"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="7" t="s">
         <v>39</v>
       </c>
       <c r="C28" s="7" t="s">
@@ -2332,7 +2333,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="11" t="s">
         <v>29</v>
       </c>
       <c r="B29" s="7" t="s">
@@ -2341,7 +2342,7 @@
       <c r="C29" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="8" t="s">
         <v>175</v>
       </c>
       <c r="E29" s="7" t="s">
@@ -2352,7 +2353,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="11" t="s">
         <v>118</v>
       </c>
       <c r="B30" s="7" t="s">
@@ -2361,7 +2362,7 @@
       <c r="C30" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="8" t="s">
         <v>119</v>
       </c>
       <c r="E30" s="7" t="s">
@@ -2372,7 +2373,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="11" t="s">
         <v>35</v>
       </c>
       <c r="B31" s="7" t="s">
@@ -2381,7 +2382,7 @@
       <c r="C31" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="8" t="s">
         <v>87</v>
       </c>
       <c r="E31" s="7" t="s">
@@ -2389,7 +2390,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="11" t="s">
         <v>106</v>
       </c>
       <c r="B32" s="7" t="s">
@@ -2398,7 +2399,7 @@
       <c r="C32" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D32" s="8" t="s">
         <v>108</v>
       </c>
       <c r="E32" s="7" t="s">
@@ -2409,7 +2410,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="11" t="s">
         <v>164</v>
       </c>
       <c r="B33" s="7" t="s">
@@ -2418,7 +2419,7 @@
       <c r="C33" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="D33" s="8" t="s">
         <v>231</v>
       </c>
       <c r="E33" s="7" t="s">
@@ -2429,7 +2430,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="11" t="s">
         <v>30</v>
       </c>
       <c r="B34" s="7" t="s">
@@ -2438,7 +2439,7 @@
       <c r="C34" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="D34" s="8" t="s">
         <v>147</v>
       </c>
       <c r="E34" s="7" t="s">
@@ -2449,7 +2450,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="11" t="s">
         <v>31</v>
       </c>
       <c r="B35" s="7" t="s">
@@ -2458,7 +2459,7 @@
       <c r="C35" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D35" s="8" t="s">
         <v>141</v>
       </c>
       <c r="E35" s="7" t="s">
@@ -2469,7 +2470,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="11" t="s">
         <v>32</v>
       </c>
       <c r="B36" s="7" t="s">
@@ -2478,7 +2479,7 @@
       <c r="C36" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D36" s="8" t="s">
         <v>136</v>
       </c>
       <c r="E36" s="7" t="s">
@@ -2486,7 +2487,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="12" t="s">
+      <c r="A37" s="11" t="s">
         <v>198</v>
       </c>
       <c r="B37" s="7" t="s">
@@ -2495,7 +2496,7 @@
       <c r="C37" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="D37" s="8" t="s">
         <v>179</v>
       </c>
       <c r="E37" s="7" t="s">
@@ -2506,7 +2507,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="11" t="s">
         <v>187</v>
       </c>
       <c r="B38" s="7" t="s">
@@ -2517,7 +2518,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="12" t="s">
+      <c r="A39" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B39" s="7" t="s">
@@ -2526,7 +2527,7 @@
       <c r="C39" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D39" s="9" t="s">
+      <c r="D39" s="8" t="s">
         <v>208</v>
       </c>
       <c r="E39" s="7" t="s">
@@ -2537,7 +2538,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="12" t="s">
+      <c r="A40" s="11" t="s">
         <v>24</v>
       </c>
       <c r="B40" s="7" t="s">
@@ -2546,7 +2547,7 @@
       <c r="C40" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="D40" s="9" t="s">
+      <c r="D40" s="8" t="s">
         <v>129</v>
       </c>
       <c r="E40" s="7" t="s">
@@ -2554,7 +2555,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="12" t="s">
+      <c r="A41" s="11" t="s">
         <v>246</v>
       </c>
       <c r="B41" t="s">
@@ -2563,7 +2564,7 @@
       <c r="C41" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="D41" s="9" t="s">
+      <c r="D41" s="8" t="s">
         <v>250</v>
       </c>
       <c r="E41" s="7" t="s">
@@ -2574,11 +2575,11 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>270</v>
+      <c r="A42" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -2821,12 +2822,12 @@
       <c r="A30" t="s">
         <v>170</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="13" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="13" t="s">
         <v>171</v>
       </c>
     </row>
@@ -2834,7 +2835,7 @@
       <c r="A32" t="s">
         <v>202</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="13" t="s">
         <v>201</v>
       </c>
     </row>
@@ -2887,22 +2888,22 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -2930,7 +2931,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -2950,20 +2951,20 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="C19" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -2973,15 +2974,15 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C24" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -3006,12 +3007,12 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>
